--- a/biology/Mycologie/Stereaceae/Stereaceae.xlsx
+++ b/biology/Mycologie/Stereaceae/Stereaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Stereaceae sont une famille de champignons, appartenant à l'ordre des Russulales.
 Ce sont des champignons résupinés poussant sur des arbres ou des feuilles en décomposition.
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Principaux clades proches des Stereaceae
+          <t>Principaux clades proches des Stereaceae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricomycetes
 ...
 Phallomycetidae
@@ -525,9 +543,43 @@
 Lactarius
 Agaricomycetidae
 Clade des Boletales
-Clade des Agaricales
-Phylogramme des Stereaceae
-Principaux clades et genres des Stereaceae
+Clade des Agaricales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stereaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stereaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification phylogénique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogramme des Stereaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Principaux clades et genres des Stereaceae
 Agaricomycetes
 Phallomycetidae
 Clade des Russulales
@@ -546,32 +598,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Stereaceae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Stereaceae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -593,10 +619,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stereaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stereaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres linnéens des Stereaceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la 10e édition du Dictionary of the Fungi (2007) :
 Acanthobasidium Oberw. 1966
